--- a/biology/Médecine/Gibbosité/Gibbosité.xlsx
+++ b/biology/Médecine/Gibbosité/Gibbosité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gibbosit%C3%A9</t>
+          <t>Gibbosité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une gibbosité est une déformation du thorax liée à une anomalie de la courbure du rachis. Dans le langage populaire on parle fréquemment de « bosse », et on qualifie de bossus les sujets qui en sont atteints. Il s'agit d'un symptôme, qui peut être observé au cours de différentes maladies affectant le rachis.
 Lors de l'examen clinique, le médecin mesure l'importance de la gibbosité en mesurant la dénivellation qu'elle occasionne.
-L’existence d’une gibbosité permet de différencier la scoliose structurée d’une attitude scoliotique[1].
+L’existence d’une gibbosité permet de différencier la scoliose structurée d’une attitude scoliotique.
 </t>
         </is>
       </c>
